--- a/固定ページ.xlsx
+++ b/固定ページ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ootsubobirino/Documents/htdocs/musalab_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3817C2CD-ACB8-E744-B2DC-B6A232D758C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A48C839-7ECF-C041-B3D8-C444E2069138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17120" xr2:uid="{985B3862-1A6E-8C44-AB0F-E3AAC4B2BC7F}"/>
+    <workbookView xWindow="13260" yWindow="820" windowWidth="28040" windowHeight="17120" xr2:uid="{985B3862-1A6E-8C44-AB0F-E3AAC4B2BC7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>タイトル</t>
   </si>
@@ -51,6 +51,120 @@
   </si>
   <si>
     <t>並び順</t>
+  </si>
+  <si>
+    <t>/home/</t>
+  </si>
+  <si>
+    <t>(親ページなし)</t>
+  </si>
+  <si>
+    <t>ムサビゲームラボとは？</t>
+  </si>
+  <si>
+    <t>/what-is-musabigamelab/</t>
+  </si>
+  <si>
+    <t>歴史</t>
+  </si>
+  <si>
+    <t>メンバー</t>
+  </si>
+  <si>
+    <t>制作ゲーム</t>
+  </si>
+  <si>
+    <t>/making-games/</t>
+  </si>
+  <si>
+    <t>/what-is-musabigamelab/member/</t>
+  </si>
+  <si>
+    <t>/what-is-musabigamelab/history/</t>
+  </si>
+  <si>
+    <t>ミコ☆ミコ☆モノノケフィーバー</t>
+  </si>
+  <si>
+    <t>Butterfly</t>
+  </si>
+  <si>
+    <t>育星霜</t>
+  </si>
+  <si>
+    <t>デューツィア劇場からの脱出</t>
+  </si>
+  <si>
+    <t>Build&amp;Crush</t>
+  </si>
+  <si>
+    <t>Little Hero the Mind</t>
+  </si>
+  <si>
+    <t>ROVER</t>
+  </si>
+  <si>
+    <t>変⭐️身</t>
+  </si>
+  <si>
+    <t>死んで死んで強くなれ！…？</t>
+  </si>
+  <si>
+    <t>Science Explosion</t>
+  </si>
+  <si>
+    <t>ぽるた＆がいすと</t>
+  </si>
+  <si>
+    <t>GOLD RUSH</t>
+  </si>
+  <si>
+    <t>/making-games/gold-rush/</t>
+  </si>
+  <si>
+    <t>/making-games/butterfly/</t>
+  </si>
+  <si>
+    <t>/making-games/ikuseisou/</t>
+  </si>
+  <si>
+    <t>/making-games/rover/</t>
+  </si>
+  <si>
+    <t>/making-games/build-and-crush/</t>
+  </si>
+  <si>
+    <t>/making-games/little-hero-the-mind/</t>
+  </si>
+  <si>
+    <t>/making-games/henshin/</t>
+  </si>
+  <si>
+    <t>/making-games/science-explosion/</t>
+  </si>
+  <si>
+    <t>/making-games/poltergeist/</t>
+  </si>
+  <si>
+    <t>/making-games/die-and-get-strong/</t>
+  </si>
+  <si>
+    <t>/making-games/the-secrets-of-the-forgotten-stage-and-love/</t>
+  </si>
+  <si>
+    <t>/making-games/miko-miko-mononokefever/</t>
+  </si>
+  <si>
+    <t>ギャラリー</t>
+  </si>
+  <si>
+    <t>/gallery/</t>
+  </si>
+  <si>
+    <t>/contact/</t>
+  </si>
+  <si>
+    <t>お問い合わせ</t>
   </si>
 </sst>
 </file>
@@ -422,13 +536,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA41FF8-DEE8-3549-A4A2-987472E19271}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -448,6 +567,267 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>500</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
